--- a/data/takipozet_banka.xlsx
+++ b/data/takipozet_banka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECD6050-5391-400F-ADCE-04FBD598B134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F946B-4C73-4F8D-AF50-DFAA41E9EBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
     <t>AKBNK</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
     <t>ALBRK</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>GARAN</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>ISCTR</t>
   </si>
   <si>
-    <t>Ö.Y.</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -58,9 +49,6 @@
     <t>TSKB</t>
   </si>
   <si>
-    <t>SAT</t>
-  </si>
-  <si>
     <t>VAKBN</t>
   </si>
   <si>
@@ -86,6 +74,18 @@
   </si>
   <si>
     <t>Market Cap (mn TL)</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>N.R.</t>
   </si>
 </sst>
 </file>
@@ -125,10 +125,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,32 +448,32 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -480,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -489,7 +490,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>7.51</v>
@@ -500,10 +501,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -512,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1.95</v>
@@ -523,10 +524,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>13.21</v>
@@ -535,7 +536,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>10.76</v>
@@ -546,10 +547,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>8.43</v>
@@ -558,7 +559,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>5.79</v>
@@ -569,19 +570,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>7.38</v>
@@ -592,10 +593,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>1.93</v>
@@ -604,7 +605,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1.84</v>
@@ -615,10 +616,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>8</v>
@@ -627,7 +628,7 @@
         <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>4.97</v>
@@ -638,10 +639,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -650,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <v>3.32</v>
